--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_30_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_30_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90227.12976861738</v>
+        <v>16185272.17501687</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90227.12976861738</v>
+        <v>16185272.17501687</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7412.547131688609</v>
+        <v>825436.9419009165</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7412.547131688609</v>
+        <v>825436.9419009165</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189518761.024796</v>
+        <v>48893910.14432714</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9754.667706789362</v>
+        <v>1160812.018440223</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18339.6402958414</v>
+        <v>2133110.106784745</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26863.36522631226</v>
+        <v>3105408.195129231</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35712.06115204428</v>
+        <v>4068743.734937791</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44434.6737133392</v>
+        <v>5044111.680529134</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53076.26139632957</v>
+        <v>6017757.888909892</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61837.22748583034</v>
+        <v>6991404.097290508</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70509.12698214658</v>
+        <v>7965050.305671041</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79320.10473679361</v>
+        <v>8894462.584534209</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87842.65017801459</v>
+        <v>9873303.801759735</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96346.53330975705</v>
+        <v>10845322.53732722</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104751.2756322083</v>
+        <v>11816222.95896154</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>113108.7541132202</v>
+        <v>12787370.32172903</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>121815.009858988</v>
+        <v>13703279.33692657</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>131069.4275305127</v>
+        <v>14551171.48466902</v>
       </c>
     </row>
   </sheetData>
@@ -27043,7 +27043,7 @@
         <v>2.895049202954397e-10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>360.9999999999415</v>
@@ -27055,10 +27055,10 @@
         <v>49.00000000020208</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>347.9999999999985</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27153,13 +27153,13 @@
         <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
